--- a/Chapter2_Algorithm_Analysis/bubble_sort/timing.xlsx
+++ b/Chapter2_Algorithm_Analysis/bubble_sort/timing.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\hahsler\CS2341\Lecture\Chapter2_Algorithm_Analysis\bubble_sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAEC0B89-6D10-4F40-A63D-59BF266D0693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C948A157-F731-4B83-92FE-292617D712A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30336" windowHeight="15600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22656" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="timing" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">timing!$A$2:$A$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">timing!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">timing!$B$2:$B$22</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
